--- a/Caribbean/master_timeline.xlsx
+++ b/Caribbean/master_timeline.xlsx
@@ -11,15 +11,15 @@
     <sheet state="visible" name="Internal Border Restrictions" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="Restrictions of Mass Gatherings" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="Social Distancing" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="Closure and Regulation of Schoo" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="Restriction and Regulation of B" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="Restriction and Regulation of G" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="Clos. and Reg. of Schools" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="Rest. and Reg. of Businesses" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="Rest. and Reg. of Government Se" sheetId="11" r:id="rId14"/>
     <sheet state="visible" name="Health Monitoring" sheetId="12" r:id="rId15"/>
     <sheet state="visible" name="Health Testing" sheetId="13" r:id="rId16"/>
     <sheet state="visible" name="Health Resources" sheetId="14" r:id="rId17"/>
     <sheet state="visible" name="Hygiene" sheetId="15" r:id="rId18"/>
     <sheet state="visible" name="Declaration of Emergency" sheetId="16" r:id="rId19"/>
-    <sheet state="visible" name="New Task Force, Bureau or Admin" sheetId="17" r:id="rId20"/>
+    <sheet state="visible" name="New Task Force, etc." sheetId="17" r:id="rId20"/>
     <sheet state="visible" name="Public Awareness Measures" sheetId="18" r:id="rId21"/>
     <sheet state="visible" name="Anti-Disinformation Measures" sheetId="19" r:id="rId22"/>
     <sheet state="visible" name="COVID-19 Vaccines" sheetId="20" r:id="rId23"/>
@@ -87,7 +87,7 @@
     <t>Group 6</t>
   </si>
   <si>
-    <t>Closure and Regulation of Schools</t>
+    <t>Clos. and Reg. of Schools</t>
   </si>
   <si>
     <t>Health Monitoring</t>
@@ -96,16 +96,16 @@
     <t>Declaration of Emergency</t>
   </si>
   <si>
-    <t>Restriction and Regulation of Businesses</t>
+    <t>Rest. and Reg. of Businesses</t>
   </si>
   <si>
     <t>Health Testing</t>
   </si>
   <si>
-    <t>New Task Force, Bureau or Administrative Configuration</t>
+    <t>New Task Force, etc.</t>
   </si>
   <si>
-    <t>Restriction and Regulation of Government Services</t>
+    <t>Rest. and Reg. of Gov. Services</t>
   </si>
   <si>
     <t>Health Resources</t>
@@ -9096,13 +9096,13 @@
     <hyperlink display="Internal Border Restrictions" location="Internal Border Restrictions!A1" ref="C7"/>
     <hyperlink display="Social Distancing" location="Social Distancing!A1" ref="E7"/>
     <hyperlink display="Quarantine" location="Quarantine!A1" ref="A8"/>
-    <hyperlink display="Closure and Regulation of Schools" location="Closure and Regulation of Schoo!A1" ref="A12"/>
+    <hyperlink display="Clos. and Reg. of Schools" location="Clos. and Reg. of Schools!A1" ref="A12"/>
     <hyperlink display="Health Monitoring" location="Health Monitoring!A1" ref="C12"/>
     <hyperlink display="Declaration of Emergency" location="Declaration of Emergency!A1" ref="E12"/>
-    <hyperlink display="Restriction and Regulation of Businesses" location="Restriction and Regulation of B!A1" ref="A13"/>
+    <hyperlink display="Rest. and Reg. of Businesses" location="Rest. and Reg. of Businesses!A1" ref="A13"/>
     <hyperlink display="Health Testing" location="Health Testing!A1" ref="C13"/>
-    <hyperlink display="New Task Force, Bureau or Administrative Configuration" location="New Task Force, Bureau or Admin!A1" ref="E13"/>
-    <hyperlink display="Restriction and Regulation of Government Services" location="Restriction and Regulation of G!A1" ref="A14"/>
+    <hyperlink display="New Task Force, etc." location="New Task Force, etc.!A1" ref="E13"/>
+    <hyperlink display="Rest. and Reg. of Gov. Services" location="Rest. and Reg. of Government Se!A1" ref="A14"/>
     <hyperlink display="Health Resources" location="Health Resources!A1" ref="C14"/>
     <hyperlink display="Public Awareness Measures" location="Public Awareness Measures!A1" ref="E14"/>
     <hyperlink display="Hygiene" location="Hygiene!A1" ref="C15"/>

--- a/Caribbean/master_timeline.xlsx
+++ b/Caribbean/master_timeline.xlsx
@@ -13,7 +13,7 @@
     <sheet state="visible" name="Social Distancing" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="Clos. and Reg. of Schools" sheetId="9" r:id="rId12"/>
     <sheet state="visible" name="Rest. and Reg. of Businesses" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="Rest. and Reg. of Government Se" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="Rest. and Reg. of Gov. Services" sheetId="11" r:id="rId14"/>
     <sheet state="visible" name="Health Monitoring" sheetId="12" r:id="rId15"/>
     <sheet state="visible" name="Health Testing" sheetId="13" r:id="rId16"/>
     <sheet state="visible" name="Health Resources" sheetId="14" r:id="rId17"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="98">
   <si>
     <t>Data Integration Sheets</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t># Policies coded</t>
+  </si>
+  <si>
+    <t>Latest Policy</t>
   </si>
   <si>
     <t>Missing End Dates</t>
@@ -1341,7 +1344,7 @@
       <color rgb="FF1155CC"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1358,12 +1361,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FFCCCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEFEFEF"/>
-        <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
     <fill>
@@ -1513,7 +1510,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1531,19 +1528,18 @@
     <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
@@ -1551,23 +1547,23 @@
     <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
+    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
@@ -1575,26 +1571,29 @@
     <xf borderId="0" fillId="12" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="16" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="16" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="17" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="17" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="18" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -1602,19 +1601,19 @@
     <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="14" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1629,16 +1628,10 @@
     <xf borderId="0" fillId="15" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="16" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="17" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="16" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="18" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="18" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="17" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1990,7 +1983,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="str">
+        <f>sheetnam</f>
+        <v>#NAME?</v>
+      </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
@@ -2006,20 +2002,22 @@
       <c r="I1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="7"/>
+      <c r="J1" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="14"/>
+      <c r="E2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3">
       <c r="A3" s="4"/>
@@ -2036,52 +2034,52 @@
       <c r="E4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="15" t="s">
-        <v>5</v>
+      <c r="A5" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="16" t="s">
-        <v>6</v>
+      <c r="C5" s="14" t="s">
+        <v>7</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="17" t="s">
-        <v>7</v>
+      <c r="E5" s="15" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="18" t="s">
-        <v>8</v>
+      <c r="A6" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="19" t="s">
-        <v>9</v>
+      <c r="C6" s="17" t="s">
+        <v>10</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="20" t="s">
-        <v>10</v>
+      <c r="E6" s="18" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="18" t="s">
-        <v>11</v>
+      <c r="A7" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="19" t="s">
-        <v>12</v>
+      <c r="C7" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="20" t="s">
-        <v>13</v>
+      <c r="E7" s="18" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="18" t="s">
-        <v>14</v>
+      <c r="A8" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="21"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="22"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9">
       <c r="A9" s="4"/>
@@ -2098,66 +2096,66 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11">
-      <c r="A11" s="23" t="s">
-        <v>15</v>
+      <c r="A11" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="24" t="s">
-        <v>16</v>
+      <c r="C11" s="22" t="s">
+        <v>17</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="25" t="s">
-        <v>17</v>
+      <c r="E11" s="23" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="26" t="s">
-        <v>18</v>
+      <c r="A12" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="27" t="s">
-        <v>19</v>
+      <c r="C12" s="25" t="s">
+        <v>20</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="28" t="s">
-        <v>20</v>
+      <c r="E12" s="26" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="26" t="s">
-        <v>21</v>
+      <c r="A13" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="27" t="s">
-        <v>22</v>
+      <c r="C13" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="28" t="s">
-        <v>23</v>
+      <c r="E13" s="26" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="26" t="s">
-        <v>24</v>
+      <c r="A14" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="27" t="s">
-        <v>25</v>
+      <c r="C14" s="25" t="s">
+        <v>26</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="28" t="s">
-        <v>26</v>
+      <c r="E14" s="26" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="29"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="27" t="s">
-        <v>27</v>
+      <c r="C15" s="25" t="s">
+        <v>28</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="28" t="s">
-        <v>28</v>
+      <c r="E15" s="26" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16">
@@ -2175,8 +2173,8 @@
       <c r="E17" s="4"/>
     </row>
     <row r="18">
-      <c r="A18" s="30" t="s">
-        <v>29</v>
+      <c r="A18" s="28" t="s">
+        <v>30</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2184,8 +2182,8 @@
       <c r="E18" s="4"/>
     </row>
     <row r="19">
-      <c r="A19" s="31" t="s">
-        <v>30</v>
+      <c r="A19" s="29" t="s">
+        <v>31</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2193,8 +2191,8 @@
       <c r="E19" s="4"/>
     </row>
     <row r="20">
-      <c r="A20" s="31" t="s">
-        <v>31</v>
+      <c r="A20" s="29" t="s">
+        <v>32</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -9102,7 +9100,7 @@
     <hyperlink display="Rest. and Reg. of Businesses" location="Rest. and Reg. of Businesses!A1" ref="A13"/>
     <hyperlink display="Health Testing" location="Health Testing!A1" ref="C13"/>
     <hyperlink display="New Task Force, etc." location="New Task Force, etc.!A1" ref="E13"/>
-    <hyperlink display="Rest. and Reg. of Gov. Services" location="Rest. and Reg. of Government Se!A1" ref="A14"/>
+    <hyperlink display="Rest. and Reg. of Gov. Services" location="Rest. and Reg. of Gov. Services!A1" ref="A14"/>
     <hyperlink display="Health Resources" location="Health Resources!A1" ref="C14"/>
     <hyperlink display="Public Awareness Measures" location="Public Awareness Measures!A1" ref="E14"/>
     <hyperlink display="Hygiene" location="Hygiene!A1" ref="C15"/>
@@ -9135,29 +9133,29 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="39" t="s">
+      <c r="A1" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="39" t="s">
+      <c r="D1" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="G1" s="37" t="s">
         <v>39</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -9201,29 +9199,29 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="39" t="s">
+      <c r="A1" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="39" t="s">
+      <c r="D1" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="G1" s="37" t="s">
         <v>39</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -9267,29 +9265,29 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="41" t="s">
+      <c r="A1" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="41" t="s">
+      <c r="C1" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="41" t="s">
+      <c r="D1" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="G1" s="39" t="s">
         <v>39</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -9333,29 +9331,29 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="41" t="s">
+      <c r="A1" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="41" t="s">
+      <c r="C1" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="41" t="s">
+      <c r="D1" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="G1" s="39" t="s">
         <v>39</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -9399,29 +9397,29 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="41" t="s">
+      <c r="A1" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="41" t="s">
+      <c r="C1" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="41" t="s">
+      <c r="D1" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="G1" s="39" t="s">
         <v>39</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -9465,29 +9463,29 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="41" t="s">
+      <c r="A1" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="41" t="s">
+      <c r="C1" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="41" t="s">
+      <c r="D1" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="G1" s="39" t="s">
         <v>39</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -9531,29 +9529,29 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="43" t="s">
+      <c r="A1" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="43" t="s">
+      <c r="C1" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="43" t="s">
+      <c r="D1" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="G1" s="41" t="s">
         <v>39</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -9597,29 +9595,29 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="43" t="s">
+      <c r="A1" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="43" t="s">
+      <c r="C1" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="43" t="s">
+      <c r="D1" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="G1" s="41" t="s">
         <v>39</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -9663,29 +9661,29 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="43" t="s">
+      <c r="A1" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="43" t="s">
+      <c r="C1" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="43" t="s">
+      <c r="D1" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="G1" s="41" t="s">
         <v>39</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -9729,29 +9727,29 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="43" t="s">
+      <c r="A1" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="43" t="s">
+      <c r="C1" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="43" t="s">
+      <c r="D1" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="G1" s="41" t="s">
         <v>39</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -9795,29 +9793,29 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="C1" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="E1" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="F1" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="G1" s="30" t="s">
         <v>39</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -9861,29 +9859,29 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="45" t="s">
+      <c r="A1" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="45" t="s">
+      <c r="C1" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="45" t="s">
+      <c r="D1" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="G1" s="43" t="s">
         <v>39</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -9927,29 +9925,29 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="45" t="s">
+      <c r="A1" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="45" t="s">
+      <c r="C1" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="45" t="s">
+      <c r="D1" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="G1" s="43" t="s">
         <v>39</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -9993,29 +9991,29 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="32" t="s">
+      <c r="A1" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="31" t="s">
         <v>40</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -10059,29 +10057,29 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="32" t="s">
+      <c r="A1" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="32" t="s">
+      <c r="C1" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="32" t="s">
+      <c r="D1" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="G1" s="30" t="s">
         <v>39</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -10125,29 +10123,29 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="34" t="s">
+      <c r="A1" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="34" t="s">
+      <c r="C1" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="34" t="s">
+      <c r="D1" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="G1" s="32" t="s">
         <v>39</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -10191,33 +10189,33 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="34" t="s">
+      <c r="A1" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="34" t="s">
+      <c r="C1" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="34" t="s">
+      <c r="D1" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="G1" s="32" t="s">
         <v>39</v>
       </c>
+      <c r="H1" s="33" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="36"/>
+      <c r="A9" s="34"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H1000">
@@ -10260,29 +10258,29 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="37" t="s">
+      <c r="A1" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="37" t="s">
+      <c r="D1" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="G1" s="35" t="s">
         <v>39</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -10326,29 +10324,29 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="37" t="s">
+      <c r="A1" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="37" t="s">
+      <c r="D1" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="G1" s="35" t="s">
         <v>39</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -10392,29 +10390,29 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="39" t="s">
+      <c r="A1" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="39" t="s">
+      <c r="D1" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="G1" s="37" t="s">
         <v>39</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Caribbean/master_timeline.xlsx
+++ b/Caribbean/master_timeline.xlsx
@@ -1983,10 +1983,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="str">
-        <f>sheetnam</f>
-        <v>#NAME?</v>
-      </c>
+      <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
